--- a/data/apriori_result.xlsx
+++ b/data/apriori_result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="167">
   <si>
     <t>Threshold</t>
   </si>
@@ -35,34 +35,34 @@
     <t>Frequent Set</t>
   </si>
   <si>
-    <t>frozenset({'101', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'101', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'105', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'11', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'110', '38'})</t>
+    <t>frozenset({'39', '101'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '101'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '105'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '11'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '110'})</t>
   </si>
   <si>
     <t>frozenset({'39', '110'})</t>
   </si>
   <si>
-    <t>frozenset({'41', '110'})</t>
-  </si>
-  <si>
-    <t>frozenset({'110', '48'})</t>
+    <t>frozenset({'110', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '110'})</t>
   </si>
   <si>
     <t>frozenset({'117', '976'})</t>
   </si>
   <si>
-    <t>frozenset({'39', '1198'})</t>
+    <t>frozenset({'1198', '39'})</t>
   </si>
   <si>
     <t>frozenset({'39', '123'})</t>
@@ -74,16 +74,16 @@
     <t>frozenset({'39', '1233'})</t>
   </si>
   <si>
-    <t>frozenset({'1327', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '1327'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '1327'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '1327'})</t>
+    <t>frozenset({'38', '1327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1327', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1327', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1327', '48'})</t>
   </si>
   <si>
     <t>frozenset({'39', '155'})</t>
@@ -95,13 +95,13 @@
     <t>frozenset({'38', '170'})</t>
   </si>
   <si>
-    <t>frozenset({'39', '170'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '170'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '170'})</t>
+    <t>frozenset({'170', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'170', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'170', '48'})</t>
   </si>
   <si>
     <t>frozenset({'39', '237'})</t>
@@ -110,10 +110,10 @@
     <t>frozenset({'48', '237'})</t>
   </si>
   <si>
-    <t>frozenset({'249', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'249', '48'})</t>
+    <t>frozenset({'39', '249'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '249'})</t>
   </si>
   <si>
     <t>frozenset({'39', '255'})</t>
@@ -137,391 +137,382 @@
     <t>frozenset({'48', '310'})</t>
   </si>
   <si>
-    <t>frozenset({'32', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '32'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '32'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '32'})</t>
+    <t>frozenset({'38', '32'})</t>
+  </si>
+  <si>
+    <t>frozenset({'32', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'32', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'32', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '36'})</t>
+  </si>
+  <si>
+    <t>frozenset({'36', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'36', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'36', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'37', '38'})</t>
+  </si>
+  <si>
+    <t>frozenset({'37', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'37', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'37', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '371'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '740'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '441'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '45'})</t>
+  </si>
+  <si>
+    <t>frozenset({'475', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '49'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '533'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '548'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '550'})</t>
+  </si>
+  <si>
+    <t>frozenset({'570', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '589'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '604'})</t>
+  </si>
+  <si>
+    <t>frozenset({'65', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'664', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '677'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '740'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '79'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '809'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '824'})</t>
+  </si>
+  <si>
+    <t>frozenset({'855', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'9', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'95', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'475', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'533', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'65', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'89', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'475', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '49'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '533'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '550'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '589'})</t>
+  </si>
+  <si>
+    <t>frozenset({'65', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '809'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '824'})</t>
+  </si>
+  <si>
+    <t>frozenset({'855', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1121', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1121', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'117', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'147', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'147', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'147', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '1715'})</t>
+  </si>
+  <si>
+    <t>frozenset({'41', '1715'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '1715'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '1859'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '1859'})</t>
+  </si>
+  <si>
+    <t>frozenset({'189', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'189', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'208', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'2238', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'225', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'225', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'225', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'270', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'271', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '2990'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '352'})</t>
+  </si>
+  <si>
+    <t>frozenset({'41', '352'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '352'})</t>
+  </si>
+  <si>
+    <t>frozenset({'38', '37'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '3735'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '3735'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '438'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '522'})</t>
+  </si>
+  <si>
+    <t>frozenset({'592', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '60'})</t>
+  </si>
+  <si>
+    <t>frozenset({'749', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'783', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'94', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'41', '604'})</t>
+  </si>
+  <si>
+    <t>frozenset({'749', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'41', '79'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '438'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '522'})</t>
+  </si>
+  <si>
+    <t>frozenset({'592', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '60'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '604'})</t>
+  </si>
+  <si>
+    <t>frozenset({'749', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'783', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '1146'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '1146'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1859', '352'})</t>
+  </si>
+  <si>
+    <t>frozenset({'237', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'338', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'9', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1146', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'117', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1198', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'1344', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '8978'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '8978'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '1344'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '270'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '271'})</t>
+  </si>
+  <si>
+    <t>frozenset({'39', '9'})</t>
+  </si>
+  <si>
+    <t>frozenset({'89', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'2238', '41'})</t>
+  </si>
+  <si>
+    <t>frozenset({'2238', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '79'})</t>
+  </si>
+  <si>
+    <t>frozenset({'185', '39'})</t>
+  </si>
+  <si>
+    <t>frozenset({'185', '48'})</t>
+  </si>
+  <si>
+    <t>frozenset({'270', '48'})</t>
   </si>
   <si>
     <t>frozenset({'36', '38'})</t>
   </si>
   <si>
-    <t>frozenset({'39', '36'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '36'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '36'})</t>
-  </si>
-  <si>
-    <t>frozenset({'37', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '37'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '37'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '37'})</t>
-  </si>
-  <si>
-    <t>frozenset({'38', '371'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'740', '38'})</t>
-  </si>
-  <si>
-    <t>frozenset({'38', '89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'441', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '45'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '475'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '49'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '533'})</t>
-  </si>
-  <si>
-    <t>frozenset({'548', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'550', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '570'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '589'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '604'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '65'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '664'})</t>
-  </si>
-  <si>
-    <t>frozenset({'677', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '740'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '79'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '809'})</t>
-  </si>
-  <si>
-    <t>frozenset({'824', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '855'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'9', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '95'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '475'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '533'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '65'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '475'})</t>
-  </si>
-  <si>
-    <t>frozenset({'49', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '533'})</t>
-  </si>
-  <si>
-    <t>frozenset({'550', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'589', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'65', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '809'})</t>
-  </si>
-  <si>
-    <t>frozenset({'824', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '855'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '1121'})</t>
-  </si>
-  <si>
-    <t>frozenset({'1121', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '117'})</t>
-  </si>
-  <si>
-    <t>frozenset({'1198', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '147'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '147'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '147'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '1715'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '1715'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '1715'})</t>
-  </si>
-  <si>
-    <t>frozenset({'1859', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'1859', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'189', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'189', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'208', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '2238'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '225'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '225'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '225'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '270'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '271'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '2990'})</t>
-  </si>
-  <si>
-    <t>frozenset({'352', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'352', '41'})</t>
-  </si>
-  <si>
-    <t>frozenset({'352', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '3735'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '3735'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '438'})</t>
-  </si>
-  <si>
-    <t>frozenset({'522', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '592'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '60'})</t>
-  </si>
-  <si>
-    <t>frozenset({'65', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '749'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '783'})</t>
-  </si>
-  <si>
-    <t>frozenset({'94', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '604'})</t>
-  </si>
-  <si>
-    <t>frozenset({'65', '41'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '749'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '79'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '438'})</t>
-  </si>
-  <si>
-    <t>frozenset({'522', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '592'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '60'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '604'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '749'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '783'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '1146'})</t>
-  </si>
-  <si>
-    <t>frozenset({'1146', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'352', '1859'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '237'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '338'})</t>
-  </si>
-  <si>
-    <t>frozenset({'9', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '1146'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '117'})</t>
-  </si>
-  <si>
-    <t>frozenset({'1198', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '1344'})</t>
-  </si>
-  <si>
-    <t>frozenset({'8978', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'8978', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '271'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '9'})</t>
-  </si>
-  <si>
-    <t>frozenset({'438', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'60', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'604', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'41', '2238'})</t>
-  </si>
-  <si>
-    <t>frozenset({'2238', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '79'})</t>
-  </si>
-  <si>
-    <t>frozenset({'39', '185'})</t>
-  </si>
-  <si>
-    <t>frozenset({'48', '185'})</t>
-  </si>
-  <si>
-    <t>frozenset({'270', '48'})</t>
-  </si>
-  <si>
-    <t>frozenset({'38', '36'})</t>
-  </si>
-  <si>
-    <t>frozenset({'413', '39'})</t>
-  </si>
-  <si>
-    <t>frozenset({'413', '48'})</t>
-  </si>
-  <si>
     <t>frozenset({'39', '413'})</t>
+  </si>
+  <si>
+    <t>frozenset({'48', '413'})</t>
   </si>
   <si>
     <t>frozenset({'39', '12925'})</t>
@@ -882,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +904,7 @@
         <v>90</v>
       </c>
       <c r="C2">
-        <v>244.7800636291504</v>
+        <v>257.4710845947266</v>
       </c>
       <c r="D2">
         <v>881</v>
@@ -930,7 +921,7 @@
         <v>94</v>
       </c>
       <c r="C3">
-        <v>1027.01210975647</v>
+        <v>1014.031887054443</v>
       </c>
       <c r="D3">
         <v>4408</v>
@@ -947,7 +938,7 @@
         <v>87</v>
       </c>
       <c r="C4">
-        <v>2213.752031326294</v>
+        <v>2166.12696647644</v>
       </c>
       <c r="D4">
         <v>8816</v>
@@ -964,7 +955,7 @@
         <v>83</v>
       </c>
       <c r="C5">
-        <v>4829.391956329346</v>
+        <v>4715.584993362427</v>
       </c>
       <c r="D5">
         <v>17632</v>
@@ -981,7 +972,7 @@
         <v>73</v>
       </c>
       <c r="C6">
-        <v>8393.541812896729</v>
+        <v>9085.5553150177</v>
       </c>
       <c r="D6">
         <v>26448</v>
@@ -998,7 +989,7 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>14561.26618385315</v>
+        <v>13934.97896194458</v>
       </c>
       <c r="D7">
         <v>35264</v>
@@ -1015,7 +1006,7 @@
         <v>67</v>
       </c>
       <c r="C8">
-        <v>17403.35416793823</v>
+        <v>16335.04199981689</v>
       </c>
       <c r="D8">
         <v>44081</v>
@@ -1032,7 +1023,7 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>20669.22616958618</v>
+        <v>20264.43099975586</v>
       </c>
       <c r="D9">
         <v>52897</v>
@@ -1049,7 +1040,7 @@
         <v>57</v>
       </c>
       <c r="C10">
-        <v>24460.294008255</v>
+        <v>25889.52922821045</v>
       </c>
       <c r="D10">
         <v>61713</v>
@@ -1066,7 +1057,7 @@
         <v>58</v>
       </c>
       <c r="C11">
-        <v>29825.66905021667</v>
+        <v>32344.2018032074</v>
       </c>
       <c r="D11">
         <v>70529</v>
@@ -1083,7 +1074,7 @@
         <v>58</v>
       </c>
       <c r="C12">
-        <v>34793.18928718567</v>
+        <v>37795.60494422913</v>
       </c>
       <c r="D12">
         <v>79345</v>
@@ -1100,420 +1091,12 @@
         <v>58</v>
       </c>
       <c r="C13">
-        <v>39816.9538974762</v>
+        <v>44482.97905921936</v>
       </c>
       <c r="D13">
         <v>88162</v>
       </c>
       <c r="E13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>154.738187789917</v>
-      </c>
-      <c r="D14">
-        <v>881</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>590.7549858093262</v>
-      </c>
-      <c r="D15">
-        <v>4408</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>1497.545003890991</v>
-      </c>
-      <c r="D16">
-        <v>8816</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>3650.923013687134</v>
-      </c>
-      <c r="D17">
-        <v>17632</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>6650.582075119019</v>
-      </c>
-      <c r="D18">
-        <v>26448</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>9634.837865829468</v>
-      </c>
-      <c r="D19">
-        <v>35264</v>
-      </c>
-      <c r="E19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>13369.41385269165</v>
-      </c>
-      <c r="D20">
-        <v>44081</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>16869.04692649841</v>
-      </c>
-      <c r="D21">
-        <v>52897</v>
-      </c>
-      <c r="E21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>20750.36692619324</v>
-      </c>
-      <c r="D22">
-        <v>61713</v>
-      </c>
-      <c r="E22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>24156.31294250488</v>
-      </c>
-      <c r="D23">
-        <v>70529</v>
-      </c>
-      <c r="E23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>31352.79583930969</v>
-      </c>
-      <c r="D24">
-        <v>79345</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>33704.56624031067</v>
-      </c>
-      <c r="D25">
-        <v>88162</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>153.1550884246826</v>
-      </c>
-      <c r="D26">
-        <v>881</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>581.8390846252441</v>
-      </c>
-      <c r="D27">
-        <v>4408</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>1478.779792785645</v>
-      </c>
-      <c r="D28">
-        <v>8816</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>3719.813108444214</v>
-      </c>
-      <c r="D29">
-        <v>17632</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>6683.300018310547</v>
-      </c>
-      <c r="D30">
-        <v>26448</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>9520.022869110107</v>
-      </c>
-      <c r="D31">
-        <v>35264</v>
-      </c>
-      <c r="E31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>13454.74696159363</v>
-      </c>
-      <c r="D32">
-        <v>44081</v>
-      </c>
-      <c r="E32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>17226.42207145691</v>
-      </c>
-      <c r="D33">
-        <v>52897</v>
-      </c>
-      <c r="E33">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>20090.48295021057</v>
-      </c>
-      <c r="D34">
-        <v>61713</v>
-      </c>
-      <c r="E34">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>23885.13469696045</v>
-      </c>
-      <c r="D35">
-        <v>70529</v>
-      </c>
-      <c r="E35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>29029.47878837585</v>
-      </c>
-      <c r="D36">
-        <v>79345</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>33652.44388580322</v>
-      </c>
-      <c r="D37">
-        <v>88162</v>
-      </c>
-      <c r="E37">
         <v>100</v>
       </c>
     </row>
@@ -1524,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1006"/>
+  <dimension ref="A1:C860"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2638,7 +2221,7 @@
         <v>4408</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2682,7 +2265,7 @@
         <v>4408</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2693,7 +2276,7 @@
         <v>4408</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2704,7 +2287,7 @@
         <v>4408</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2759,7 +2342,7 @@
         <v>4408</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2770,7 +2353,7 @@
         <v>4408</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2781,7 +2364,7 @@
         <v>4408</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2792,7 +2375,7 @@
         <v>4408</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2803,7 +2386,7 @@
         <v>4408</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2814,7 +2397,7 @@
         <v>4408</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2825,7 +2408,7 @@
         <v>4408</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2836,7 +2419,7 @@
         <v>4408</v>
       </c>
       <c r="C119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2847,7 +2430,7 @@
         <v>4408</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2858,7 +2441,7 @@
         <v>4408</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2869,7 +2452,7 @@
         <v>4408</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2880,7 +2463,7 @@
         <v>4408</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2935,7 +2518,7 @@
         <v>4408</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2957,7 +2540,7 @@
         <v>4408</v>
       </c>
       <c r="C130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2979,7 +2562,7 @@
         <v>4408</v>
       </c>
       <c r="C132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3067,7 +2650,7 @@
         <v>4408</v>
       </c>
       <c r="C140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3078,7 +2661,7 @@
         <v>4408</v>
       </c>
       <c r="C141" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3089,7 +2672,7 @@
         <v>4408</v>
       </c>
       <c r="C142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3144,7 +2727,7 @@
         <v>4408</v>
       </c>
       <c r="C147" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3298,7 +2881,7 @@
         <v>4408</v>
       </c>
       <c r="C161" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3320,7 +2903,7 @@
         <v>4408</v>
       </c>
       <c r="C163" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3331,7 +2914,7 @@
         <v>4408</v>
       </c>
       <c r="C164" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3375,7 +2958,7 @@
         <v>4408</v>
       </c>
       <c r="C168" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3408,7 +2991,7 @@
         <v>4408</v>
       </c>
       <c r="C171" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3419,7 +3002,7 @@
         <v>4408</v>
       </c>
       <c r="C172" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3430,7 +3013,7 @@
         <v>4408</v>
       </c>
       <c r="C173" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3441,7 +3024,7 @@
         <v>4408</v>
       </c>
       <c r="C174" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3463,7 +3046,7 @@
         <v>4408</v>
       </c>
       <c r="C176" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3485,7 +3068,7 @@
         <v>4408</v>
       </c>
       <c r="C178" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3496,7 +3079,7 @@
         <v>4408</v>
       </c>
       <c r="C179" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3507,7 +3090,7 @@
         <v>4408</v>
       </c>
       <c r="C180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3518,7 +3101,7 @@
         <v>4408</v>
       </c>
       <c r="C181" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3540,7 +3123,7 @@
         <v>4408</v>
       </c>
       <c r="C183" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3551,7 +3134,7 @@
         <v>4408</v>
       </c>
       <c r="C184" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3661,7 +3244,7 @@
         <v>8816</v>
       </c>
       <c r="C194" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3672,7 +3255,7 @@
         <v>8816</v>
       </c>
       <c r="C195" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3694,7 +3277,7 @@
         <v>8816</v>
       </c>
       <c r="C197" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3738,7 +3321,7 @@
         <v>8816</v>
       </c>
       <c r="C201" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3749,7 +3332,7 @@
         <v>8816</v>
       </c>
       <c r="C202" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3804,7 +3387,7 @@
         <v>8816</v>
       </c>
       <c r="C207" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3815,7 +3398,7 @@
         <v>8816</v>
       </c>
       <c r="C208" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3826,7 +3409,7 @@
         <v>8816</v>
       </c>
       <c r="C209" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3837,7 +3420,7 @@
         <v>8816</v>
       </c>
       <c r="C210" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3848,7 +3431,7 @@
         <v>8816</v>
       </c>
       <c r="C211" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3859,7 +3442,7 @@
         <v>8816</v>
       </c>
       <c r="C212" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3870,7 +3453,7 @@
         <v>8816</v>
       </c>
       <c r="C213" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3881,7 +3464,7 @@
         <v>8816</v>
       </c>
       <c r="C214" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3892,7 +3475,7 @@
         <v>8816</v>
       </c>
       <c r="C215" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3914,7 +3497,7 @@
         <v>8816</v>
       </c>
       <c r="C217" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3958,7 +3541,7 @@
         <v>8816</v>
       </c>
       <c r="C221" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4068,7 +3651,7 @@
         <v>8816</v>
       </c>
       <c r="C231" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4079,7 +3662,7 @@
         <v>8816</v>
       </c>
       <c r="C232" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4090,7 +3673,7 @@
         <v>8816</v>
       </c>
       <c r="C233" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4101,7 +3684,7 @@
         <v>8816</v>
       </c>
       <c r="C234" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4156,7 +3739,7 @@
         <v>8816</v>
       </c>
       <c r="C239" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4288,7 +3871,7 @@
         <v>8816</v>
       </c>
       <c r="C251" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4299,7 +3882,7 @@
         <v>8816</v>
       </c>
       <c r="C252" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4310,7 +3893,7 @@
         <v>8816</v>
       </c>
       <c r="C253" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4376,7 +3959,7 @@
         <v>8816</v>
       </c>
       <c r="C259" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4387,7 +3970,7 @@
         <v>8816</v>
       </c>
       <c r="C260" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4409,7 +3992,7 @@
         <v>8816</v>
       </c>
       <c r="C262" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4431,7 +4014,7 @@
         <v>8816</v>
       </c>
       <c r="C264" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4453,7 +4036,7 @@
         <v>8816</v>
       </c>
       <c r="C266" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4464,7 +4047,7 @@
         <v>8816</v>
       </c>
       <c r="C267" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4486,7 +4069,7 @@
         <v>8816</v>
       </c>
       <c r="C269" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4497,7 +4080,7 @@
         <v>8816</v>
       </c>
       <c r="C270" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4519,7 +4102,7 @@
         <v>8816</v>
       </c>
       <c r="C272" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4618,7 +4201,7 @@
         <v>17632</v>
       </c>
       <c r="C281" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4629,7 +4212,7 @@
         <v>17632</v>
       </c>
       <c r="C282" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4640,7 +4223,7 @@
         <v>17632</v>
       </c>
       <c r="C283" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4651,7 +4234,7 @@
         <v>17632</v>
       </c>
       <c r="C284" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4673,7 +4256,7 @@
         <v>17632</v>
       </c>
       <c r="C286" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4684,7 +4267,7 @@
         <v>17632</v>
       </c>
       <c r="C287" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4728,7 +4311,7 @@
         <v>17632</v>
       </c>
       <c r="C291" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4739,7 +4322,7 @@
         <v>17632</v>
       </c>
       <c r="C292" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4750,7 +4333,7 @@
         <v>17632</v>
       </c>
       <c r="C293" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4805,7 +4388,7 @@
         <v>17632</v>
       </c>
       <c r="C298" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4816,7 +4399,7 @@
         <v>17632</v>
       </c>
       <c r="C299" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4827,7 +4410,7 @@
         <v>17632</v>
       </c>
       <c r="C300" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4838,7 +4421,7 @@
         <v>17632</v>
       </c>
       <c r="C301" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4849,7 +4432,7 @@
         <v>17632</v>
       </c>
       <c r="C302" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4860,7 +4443,7 @@
         <v>17632</v>
       </c>
       <c r="C303" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4882,7 +4465,7 @@
         <v>17632</v>
       </c>
       <c r="C305" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4926,7 +4509,7 @@
         <v>17632</v>
       </c>
       <c r="C309" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5036,7 +4619,7 @@
         <v>17632</v>
       </c>
       <c r="C319" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5047,7 +4630,7 @@
         <v>17632</v>
       </c>
       <c r="C320" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5102,7 +4685,7 @@
         <v>17632</v>
       </c>
       <c r="C325" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5234,7 +4817,7 @@
         <v>17632</v>
       </c>
       <c r="C337" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5267,7 +4850,7 @@
         <v>17632</v>
       </c>
       <c r="C340" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5311,7 +4894,7 @@
         <v>17632</v>
       </c>
       <c r="C344" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5333,7 +4916,7 @@
         <v>17632</v>
       </c>
       <c r="C346" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5366,7 +4949,7 @@
         <v>17632</v>
       </c>
       <c r="C349" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5377,7 +4960,7 @@
         <v>17632</v>
       </c>
       <c r="C350" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5399,7 +4982,7 @@
         <v>17632</v>
       </c>
       <c r="C352" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5421,7 +5004,7 @@
         <v>17632</v>
       </c>
       <c r="C354" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5432,7 +5015,7 @@
         <v>17632</v>
       </c>
       <c r="C355" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5509,7 +5092,7 @@
         <v>26448</v>
       </c>
       <c r="C362" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5520,7 +5103,7 @@
         <v>26448</v>
       </c>
       <c r="C363" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5531,7 +5114,7 @@
         <v>26448</v>
       </c>
       <c r="C364" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5553,7 +5136,7 @@
         <v>26448</v>
       </c>
       <c r="C366" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5597,7 +5180,7 @@
         <v>26448</v>
       </c>
       <c r="C370" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5608,7 +5191,7 @@
         <v>26448</v>
       </c>
       <c r="C371" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5619,7 +5202,7 @@
         <v>26448</v>
       </c>
       <c r="C372" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5674,7 +5257,7 @@
         <v>26448</v>
       </c>
       <c r="C377" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5685,7 +5268,7 @@
         <v>26448</v>
       </c>
       <c r="C378" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5696,7 +5279,7 @@
         <v>26448</v>
       </c>
       <c r="C379" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5707,7 +5290,7 @@
         <v>26448</v>
       </c>
       <c r="C380" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5729,7 +5312,7 @@
         <v>26448</v>
       </c>
       <c r="C382" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -5773,7 +5356,7 @@
         <v>26448</v>
       </c>
       <c r="C386" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -5795,7 +5378,7 @@
         <v>26448</v>
       </c>
       <c r="C388" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5949,7 +5532,7 @@
         <v>26448</v>
       </c>
       <c r="C402" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6158,7 +5741,7 @@
         <v>26448</v>
       </c>
       <c r="C421" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6191,7 +5774,7 @@
         <v>26448</v>
       </c>
       <c r="C424" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6202,7 +5785,7 @@
         <v>26448</v>
       </c>
       <c r="C425" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6224,7 +5807,7 @@
         <v>26448</v>
       </c>
       <c r="C427" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6235,7 +5818,7 @@
         <v>26448</v>
       </c>
       <c r="C428" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6312,7 +5895,7 @@
         <v>35264</v>
       </c>
       <c r="C435" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6323,7 +5906,7 @@
         <v>35264</v>
       </c>
       <c r="C436" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6334,7 +5917,7 @@
         <v>35264</v>
       </c>
       <c r="C437" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6378,7 +5961,7 @@
         <v>35264</v>
       </c>
       <c r="C441" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6389,7 +5972,7 @@
         <v>35264</v>
       </c>
       <c r="C442" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6400,7 +5983,7 @@
         <v>35264</v>
       </c>
       <c r="C443" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6455,7 +6038,7 @@
         <v>35264</v>
       </c>
       <c r="C448" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6466,7 +6049,7 @@
         <v>35264</v>
       </c>
       <c r="C449" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6477,7 +6060,7 @@
         <v>35264</v>
       </c>
       <c r="C450" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6488,7 +6071,7 @@
         <v>35264</v>
       </c>
       <c r="C451" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6499,7 +6082,7 @@
         <v>35264</v>
       </c>
       <c r="C452" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6510,7 +6093,7 @@
         <v>35264</v>
       </c>
       <c r="C453" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6532,7 +6115,7 @@
         <v>35264</v>
       </c>
       <c r="C455" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6576,7 +6159,7 @@
         <v>35264</v>
       </c>
       <c r="C459" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6598,7 +6181,7 @@
         <v>35264</v>
       </c>
       <c r="C461" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6752,7 +6335,7 @@
         <v>35264</v>
       </c>
       <c r="C475" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -6961,7 +6544,7 @@
         <v>35264</v>
       </c>
       <c r="C494" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6983,7 +6566,7 @@
         <v>35264</v>
       </c>
       <c r="C496" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6994,7 +6577,7 @@
         <v>35264</v>
       </c>
       <c r="C497" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7016,7 +6599,7 @@
         <v>35264</v>
       </c>
       <c r="C499" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7027,7 +6610,7 @@
         <v>35264</v>
       </c>
       <c r="C500" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7104,7 +6687,7 @@
         <v>44081</v>
       </c>
       <c r="C507" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7115,7 +6698,7 @@
         <v>44081</v>
       </c>
       <c r="C508" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7159,7 +6742,7 @@
         <v>44081</v>
       </c>
       <c r="C512" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7170,7 +6753,7 @@
         <v>44081</v>
       </c>
       <c r="C513" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7225,7 +6808,7 @@
         <v>44081</v>
       </c>
       <c r="C518" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7236,7 +6819,7 @@
         <v>44081</v>
       </c>
       <c r="C519" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -7247,7 +6830,7 @@
         <v>44081</v>
       </c>
       <c r="C520" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -7258,7 +6841,7 @@
         <v>44081</v>
       </c>
       <c r="C521" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -7269,7 +6852,7 @@
         <v>44081</v>
       </c>
       <c r="C522" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -7280,7 +6863,7 @@
         <v>44081</v>
       </c>
       <c r="C523" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -7291,7 +6874,7 @@
         <v>44081</v>
       </c>
       <c r="C524" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -7346,7 +6929,7 @@
         <v>44081</v>
       </c>
       <c r="C529" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7357,7 +6940,7 @@
         <v>44081</v>
       </c>
       <c r="C530" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -7478,7 +7061,7 @@
         <v>44081</v>
       </c>
       <c r="C541" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -7522,7 +7105,7 @@
         <v>44081</v>
       </c>
       <c r="C545" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -7709,7 +7292,7 @@
         <v>44081</v>
       </c>
       <c r="C562" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -7731,7 +7314,7 @@
         <v>44081</v>
       </c>
       <c r="C564" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -7753,7 +7336,7 @@
         <v>44081</v>
       </c>
       <c r="C566" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -7830,7 +7413,7 @@
         <v>52897</v>
       </c>
       <c r="C573" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -7841,7 +7424,7 @@
         <v>52897</v>
       </c>
       <c r="C574" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -7874,7 +7457,7 @@
         <v>52897</v>
       </c>
       <c r="C577" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -7885,7 +7468,7 @@
         <v>52897</v>
       </c>
       <c r="C578" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -7940,7 +7523,7 @@
         <v>52897</v>
       </c>
       <c r="C583" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7951,7 +7534,7 @@
         <v>52897</v>
       </c>
       <c r="C584" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7962,7 +7545,7 @@
         <v>52897</v>
       </c>
       <c r="C585" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7973,7 +7556,7 @@
         <v>52897</v>
       </c>
       <c r="C586" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7984,7 +7567,7 @@
         <v>52897</v>
       </c>
       <c r="C587" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7995,7 +7578,7 @@
         <v>52897</v>
       </c>
       <c r="C588" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -8006,7 +7589,7 @@
         <v>52897</v>
       </c>
       <c r="C589" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -8061,7 +7644,7 @@
         <v>52897</v>
       </c>
       <c r="C594" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -8072,7 +7655,7 @@
         <v>52897</v>
       </c>
       <c r="C595" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -8182,7 +7765,7 @@
         <v>52897</v>
       </c>
       <c r="C605" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -8391,7 +7974,7 @@
         <v>52897</v>
       </c>
       <c r="C624" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -8413,7 +7996,7 @@
         <v>52897</v>
       </c>
       <c r="C626" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -8435,7 +8018,7 @@
         <v>52897</v>
       </c>
       <c r="C628" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -8512,7 +8095,7 @@
         <v>61713</v>
       </c>
       <c r="C635" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -8523,7 +8106,7 @@
         <v>61713</v>
       </c>
       <c r="C636" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -8556,7 +8139,7 @@
         <v>61713</v>
       </c>
       <c r="C639" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -8567,7 +8150,7 @@
         <v>61713</v>
       </c>
       <c r="C640" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -8611,7 +8194,7 @@
         <v>61713</v>
       </c>
       <c r="C644" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -8622,7 +8205,7 @@
         <v>61713</v>
       </c>
       <c r="C645" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -8633,7 +8216,7 @@
         <v>61713</v>
       </c>
       <c r="C646" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -8644,7 +8227,7 @@
         <v>61713</v>
       </c>
       <c r="C647" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -8655,7 +8238,7 @@
         <v>61713</v>
       </c>
       <c r="C648" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -8710,7 +8293,7 @@
         <v>61713</v>
       </c>
       <c r="C653" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -8721,7 +8304,7 @@
         <v>61713</v>
       </c>
       <c r="C654" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -8864,7 +8447,7 @@
         <v>61713</v>
       </c>
       <c r="C667" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -9029,7 +8612,7 @@
         <v>61713</v>
       </c>
       <c r="C682" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -9051,7 +8634,7 @@
         <v>61713</v>
       </c>
       <c r="C684" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -9073,7 +8656,7 @@
         <v>61713</v>
       </c>
       <c r="C686" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -9139,7 +8722,7 @@
         <v>70529</v>
       </c>
       <c r="C692" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -9150,7 +8733,7 @@
         <v>70529</v>
       </c>
       <c r="C693" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -9183,7 +8766,7 @@
         <v>70529</v>
       </c>
       <c r="C696" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -9194,7 +8777,7 @@
         <v>70529</v>
       </c>
       <c r="C697" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -9238,7 +8821,7 @@
         <v>70529</v>
       </c>
       <c r="C701" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -9249,7 +8832,7 @@
         <v>70529</v>
       </c>
       <c r="C702" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -9260,7 +8843,7 @@
         <v>70529</v>
       </c>
       <c r="C703" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -9271,7 +8854,7 @@
         <v>70529</v>
       </c>
       <c r="C704" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -9326,7 +8909,7 @@
         <v>70529</v>
       </c>
       <c r="C709" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -9337,7 +8920,7 @@
         <v>70529</v>
       </c>
       <c r="C710" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -9480,7 +9063,7 @@
         <v>70529</v>
       </c>
       <c r="C723" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -9535,7 +9118,7 @@
         <v>70529</v>
       </c>
       <c r="C728" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -9601,7 +9184,7 @@
         <v>70529</v>
       </c>
       <c r="C734" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -9645,7 +9228,7 @@
         <v>70529</v>
       </c>
       <c r="C738" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -9656,7 +9239,7 @@
         <v>70529</v>
       </c>
       <c r="C739" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -9667,7 +9250,7 @@
         <v>70529</v>
       </c>
       <c r="C740" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -9689,7 +9272,7 @@
         <v>70529</v>
       </c>
       <c r="C742" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -9777,7 +9360,7 @@
         <v>79345</v>
       </c>
       <c r="C750" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -9810,7 +9393,7 @@
         <v>79345</v>
       </c>
       <c r="C753" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -9821,7 +9404,7 @@
         <v>79345</v>
       </c>
       <c r="C754" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -9865,7 +9448,7 @@
         <v>79345</v>
       </c>
       <c r="C758" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -9876,7 +9459,7 @@
         <v>79345</v>
       </c>
       <c r="C759" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -9887,7 +9470,7 @@
         <v>79345</v>
       </c>
       <c r="C760" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -9898,7 +9481,7 @@
         <v>79345</v>
       </c>
       <c r="C761" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -9953,7 +9536,7 @@
         <v>79345</v>
       </c>
       <c r="C766" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9964,7 +9547,7 @@
         <v>79345</v>
       </c>
       <c r="C767" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -10074,7 +9657,7 @@
         <v>79345</v>
       </c>
       <c r="C777" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -10162,7 +9745,7 @@
         <v>79345</v>
       </c>
       <c r="C785" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -10283,7 +9866,7 @@
         <v>79345</v>
       </c>
       <c r="C796" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -10294,7 +9877,7 @@
         <v>79345</v>
       </c>
       <c r="C797" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -10316,7 +9899,7 @@
         <v>79345</v>
       </c>
       <c r="C799" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -10338,7 +9921,7 @@
         <v>79345</v>
       </c>
       <c r="C801" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -10415,7 +9998,7 @@
         <v>88162</v>
       </c>
       <c r="C808" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -10426,7 +10009,7 @@
         <v>88162</v>
       </c>
       <c r="C809" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -10459,7 +10042,7 @@
         <v>88162</v>
       </c>
       <c r="C812" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -10470,7 +10053,7 @@
         <v>88162</v>
       </c>
       <c r="C813" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -10514,7 +10097,7 @@
         <v>88162</v>
       </c>
       <c r="C817" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -10525,7 +10108,7 @@
         <v>88162</v>
       </c>
       <c r="C818" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -10536,7 +10119,7 @@
         <v>88162</v>
       </c>
       <c r="C819" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -10547,7 +10130,7 @@
         <v>88162</v>
       </c>
       <c r="C820" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -10602,7 +10185,7 @@
         <v>88162</v>
       </c>
       <c r="C825" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -10613,7 +10196,7 @@
         <v>88162</v>
       </c>
       <c r="C826" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -10723,7 +10306,7 @@
         <v>88162</v>
       </c>
       <c r="C836" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -10756,7 +10339,7 @@
         <v>88162</v>
       </c>
       <c r="C839" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -10811,7 +10394,7 @@
         <v>88162</v>
       </c>
       <c r="C844" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -10932,7 +10515,7 @@
         <v>88162</v>
       </c>
       <c r="C855" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -10943,7 +10526,7 @@
         <v>88162</v>
       </c>
       <c r="C856" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -10976,7 +10559,7 @@
         <v>88162</v>
       </c>
       <c r="C859" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -10988,1612 +10571,6 @@
       </c>
       <c r="C860" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="861" spans="1:3">
-      <c r="A861">
-        <v>0.05442176870748299</v>
-      </c>
-      <c r="B861">
-        <v>881</v>
-      </c>
-      <c r="C861" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="862" spans="1:3">
-      <c r="A862">
-        <v>0.06689342403628118</v>
-      </c>
-      <c r="B862">
-        <v>881</v>
-      </c>
-      <c r="C862" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="863" spans="1:3">
-      <c r="A863">
-        <v>0.1530612244897959</v>
-      </c>
-      <c r="B863">
-        <v>881</v>
-      </c>
-      <c r="C863" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="864" spans="1:3">
-      <c r="A864">
-        <v>0.09183673469387756</v>
-      </c>
-      <c r="B864">
-        <v>881</v>
-      </c>
-      <c r="C864" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="865" spans="1:3">
-      <c r="A865">
-        <v>0.1099773242630386</v>
-      </c>
-      <c r="B865">
-        <v>881</v>
-      </c>
-      <c r="C865" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="866" spans="1:3">
-      <c r="A866">
-        <v>0.1859410430839002</v>
-      </c>
-      <c r="B866">
-        <v>881</v>
-      </c>
-      <c r="C866" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="867" spans="1:3">
-      <c r="A867">
-        <v>0.3163265306122449</v>
-      </c>
-      <c r="B867">
-        <v>881</v>
-      </c>
-      <c r="C867" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="868" spans="1:3">
-      <c r="A868">
-        <v>0.1258503401360544</v>
-      </c>
-      <c r="B868">
-        <v>881</v>
-      </c>
-      <c r="C868" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="869" spans="1:3">
-      <c r="A869">
-        <v>0.08913585847130868</v>
-      </c>
-      <c r="B869">
-        <v>4408</v>
-      </c>
-      <c r="C869" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="870" spans="1:3">
-      <c r="A870">
-        <v>0.05284645044227716</v>
-      </c>
-      <c r="B870">
-        <v>4408</v>
-      </c>
-      <c r="C870" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="871" spans="1:3">
-      <c r="A871">
-        <v>0.08210478566568383</v>
-      </c>
-      <c r="B871">
-        <v>4408</v>
-      </c>
-      <c r="C871" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="872" spans="1:3">
-      <c r="A872">
-        <v>0.128373780902699</v>
-      </c>
-      <c r="B872">
-        <v>4408</v>
-      </c>
-      <c r="C872" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="873" spans="1:3">
-      <c r="A873">
-        <v>0.07802222726241778</v>
-      </c>
-      <c r="B873">
-        <v>4408</v>
-      </c>
-      <c r="C873" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="874" spans="1:3">
-      <c r="A874">
-        <v>0.09072352007257882</v>
-      </c>
-      <c r="B874">
-        <v>4408</v>
-      </c>
-      <c r="C874" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="875" spans="1:3">
-      <c r="A875">
-        <v>0.2018598321614879</v>
-      </c>
-      <c r="B875">
-        <v>4408</v>
-      </c>
-      <c r="C875" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="876" spans="1:3">
-      <c r="A876">
-        <v>0.3086867770469494</v>
-      </c>
-      <c r="B876">
-        <v>4408</v>
-      </c>
-      <c r="C876" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3">
-      <c r="A877">
-        <v>0.1524155137219324</v>
-      </c>
-      <c r="B877">
-        <v>4408</v>
-      </c>
-      <c r="C877" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="878" spans="1:3">
-      <c r="A878">
-        <v>0.09765226267437904</v>
-      </c>
-      <c r="B878">
-        <v>8816</v>
-      </c>
-      <c r="C878" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="879" spans="1:3">
-      <c r="A879">
-        <v>0.05738913462629012</v>
-      </c>
-      <c r="B879">
-        <v>8816</v>
-      </c>
-      <c r="C879" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3">
-      <c r="A880">
-        <v>0.09300215492798004</v>
-      </c>
-      <c r="B880">
-        <v>8816</v>
-      </c>
-      <c r="C880" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="881" spans="1:3">
-      <c r="A881">
-        <v>0.1138709311557219</v>
-      </c>
-      <c r="B881">
-        <v>8816</v>
-      </c>
-      <c r="C881" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="882" spans="1:3">
-      <c r="A882">
-        <v>0.0702052852444142</v>
-      </c>
-      <c r="B882">
-        <v>8816</v>
-      </c>
-      <c r="C882" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="883" spans="1:3">
-      <c r="A883">
-        <v>0.07927866621299762</v>
-      </c>
-      <c r="B883">
-        <v>8816</v>
-      </c>
-      <c r="C883" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3">
-      <c r="A884">
-        <v>0.1943971872518998</v>
-      </c>
-      <c r="B884">
-        <v>8816</v>
-      </c>
-      <c r="C884" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="885" spans="1:3">
-      <c r="A885">
-        <v>0.2925031189747079</v>
-      </c>
-      <c r="B885">
-        <v>8816</v>
-      </c>
-      <c r="C885" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="886" spans="1:3">
-      <c r="A886">
-        <v>0.1440399228762618</v>
-      </c>
-      <c r="B886">
-        <v>8816</v>
-      </c>
-      <c r="C886" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="887" spans="1:3">
-      <c r="A887">
-        <v>0.0989054613508762</v>
-      </c>
-      <c r="B887">
-        <v>17632</v>
-      </c>
-      <c r="C887" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="888" spans="1:3">
-      <c r="A888">
-        <v>0.06079510009641014</v>
-      </c>
-      <c r="B888">
-        <v>17632</v>
-      </c>
-      <c r="C888" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="889" spans="1:3">
-      <c r="A889">
-        <v>0.09261044632223671</v>
-      </c>
-      <c r="B889">
-        <v>17632</v>
-      </c>
-      <c r="C889" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="890" spans="1:3">
-      <c r="A890">
-        <v>0.1121193217263086</v>
-      </c>
-      <c r="B890">
-        <v>17632</v>
-      </c>
-      <c r="C890" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="891" spans="1:3">
-      <c r="A891">
-        <v>0.07032269041002666</v>
-      </c>
-      <c r="B891">
-        <v>17632</v>
-      </c>
-      <c r="C891" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="892" spans="1:3">
-      <c r="A892">
-        <v>0.08013383995916747</v>
-      </c>
-      <c r="B892">
-        <v>17632</v>
-      </c>
-      <c r="C892" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="893" spans="1:3">
-      <c r="A893">
-        <v>0.2026314297056655</v>
-      </c>
-      <c r="B893">
-        <v>17632</v>
-      </c>
-      <c r="C893" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="894" spans="1:3">
-      <c r="A894">
-        <v>0.301026484432598</v>
-      </c>
-      <c r="B894">
-        <v>17632</v>
-      </c>
-      <c r="C894" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="895" spans="1:3">
-      <c r="A895">
-        <v>0.1531786990302274</v>
-      </c>
-      <c r="B895">
-        <v>17632</v>
-      </c>
-      <c r="C895" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="896" spans="1:3">
-      <c r="A896">
-        <v>0.10170516843737</v>
-      </c>
-      <c r="B896">
-        <v>26448</v>
-      </c>
-      <c r="C896" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="897" spans="1:3">
-      <c r="A897">
-        <v>0.06162803886725396</v>
-      </c>
-      <c r="B897">
-        <v>26448</v>
-      </c>
-      <c r="C897" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="898" spans="1:3">
-      <c r="A898">
-        <v>0.09474838368180272</v>
-      </c>
-      <c r="B898">
-        <v>26448</v>
-      </c>
-      <c r="C898" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="899" spans="1:3">
-      <c r="A899">
-        <v>0.1149759915308707</v>
-      </c>
-      <c r="B899">
-        <v>26448</v>
-      </c>
-      <c r="C899" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="900" spans="1:3">
-      <c r="A900">
-        <v>0.07281938825664486</v>
-      </c>
-      <c r="B900">
-        <v>26448</v>
-      </c>
-      <c r="C900" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="901" spans="1:3">
-      <c r="A901">
-        <v>0.0846912926764717</v>
-      </c>
-      <c r="B901">
-        <v>26448</v>
-      </c>
-      <c r="C901" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="902" spans="1:3">
-      <c r="A902">
-        <v>0.2113501455631593</v>
-      </c>
-      <c r="B902">
-        <v>26448</v>
-      </c>
-      <c r="C902" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="903" spans="1:3">
-      <c r="A903">
-        <v>0.316533706378313</v>
-      </c>
-      <c r="B903">
-        <v>26448</v>
-      </c>
-      <c r="C903" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="904" spans="1:3">
-      <c r="A904">
-        <v>0.1623879919845741</v>
-      </c>
-      <c r="B904">
-        <v>26448</v>
-      </c>
-      <c r="C904" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="905" spans="1:3">
-      <c r="A905">
-        <v>0.09924854671770877</v>
-      </c>
-      <c r="B905">
-        <v>35264</v>
-      </c>
-      <c r="C905" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="906" spans="1:3">
-      <c r="A906">
-        <v>0.0603147596767333</v>
-      </c>
-      <c r="B906">
-        <v>35264</v>
-      </c>
-      <c r="C906" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="907" spans="1:3">
-      <c r="A907">
-        <v>0.09425776265418971</v>
-      </c>
-      <c r="B907">
-        <v>35264</v>
-      </c>
-      <c r="C907" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="908" spans="1:3">
-      <c r="A908">
-        <v>0.1149581738267404</v>
-      </c>
-      <c r="B908">
-        <v>35264</v>
-      </c>
-      <c r="C908" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="909" spans="1:3">
-      <c r="A909">
-        <v>0.07236636892102652</v>
-      </c>
-      <c r="B909">
-        <v>35264</v>
-      </c>
-      <c r="C909" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="910" spans="1:3">
-      <c r="A910">
-        <v>0.08816106621295902</v>
-      </c>
-      <c r="B910">
-        <v>35264</v>
-      </c>
-      <c r="C910" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="911" spans="1:3">
-      <c r="A911">
-        <v>0.2106337728626116</v>
-      </c>
-      <c r="B911">
-        <v>35264</v>
-      </c>
-      <c r="C911" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="912" spans="1:3">
-      <c r="A912">
-        <v>0.3231816248404934</v>
-      </c>
-      <c r="B912">
-        <v>35264</v>
-      </c>
-      <c r="C912" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="913" spans="1:3">
-      <c r="A913">
-        <v>0.1643839500921594</v>
-      </c>
-      <c r="B913">
-        <v>35264</v>
-      </c>
-      <c r="C913" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="914" spans="1:3">
-      <c r="A914">
-        <v>0.0987931582051631</v>
-      </c>
-      <c r="B914">
-        <v>44081</v>
-      </c>
-      <c r="C914" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="915" spans="1:3">
-      <c r="A915">
-        <v>0.05208475114559231</v>
-      </c>
-      <c r="B915">
-        <v>44081</v>
-      </c>
-      <c r="C915" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="916" spans="1:3">
-      <c r="A916">
-        <v>0.09330338913842384</v>
-      </c>
-      <c r="B916">
-        <v>44081</v>
-      </c>
-      <c r="C916" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="917" spans="1:3">
-      <c r="A917">
-        <v>0.1173041150583004</v>
-      </c>
-      <c r="B917">
-        <v>44081</v>
-      </c>
-      <c r="C917" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="918" spans="1:3">
-      <c r="A918">
-        <v>0.06290549430606597</v>
-      </c>
-      <c r="B918">
-        <v>44081</v>
-      </c>
-      <c r="C918" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="919" spans="1:3">
-      <c r="A919">
-        <v>0.090014064697609</v>
-      </c>
-      <c r="B919">
-        <v>44081</v>
-      </c>
-      <c r="C919" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="920" spans="1:3">
-      <c r="A920">
-        <v>0.1827956989247312</v>
-      </c>
-      <c r="B920">
-        <v>44081</v>
-      </c>
-      <c r="C920" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="921" spans="1:3">
-      <c r="A921">
-        <v>0.3261421895558278</v>
-      </c>
-      <c r="B921">
-        <v>44081</v>
-      </c>
-      <c r="C921" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="922" spans="1:3">
-      <c r="A922">
-        <v>0.1429154757043691</v>
-      </c>
-      <c r="B922">
-        <v>44081</v>
-      </c>
-      <c r="C922" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="923" spans="1:3">
-      <c r="A923">
-        <v>0.09656319709629854</v>
-      </c>
-      <c r="B923">
-        <v>52897</v>
-      </c>
-      <c r="C923" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="924" spans="1:3">
-      <c r="A924">
-        <v>0.09096752240160308</v>
-      </c>
-      <c r="B924">
-        <v>52897</v>
-      </c>
-      <c r="C924" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="925" spans="1:3">
-      <c r="A925">
-        <v>0.1167151877197626</v>
-      </c>
-      <c r="B925">
-        <v>52897</v>
-      </c>
-      <c r="C925" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="926" spans="1:3">
-      <c r="A926">
-        <v>0.05242164164996786</v>
-      </c>
-      <c r="B926">
-        <v>52897</v>
-      </c>
-      <c r="C926" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="927" spans="1:3">
-      <c r="A927">
-        <v>0.08905818745510227</v>
-      </c>
-      <c r="B927">
-        <v>52897</v>
-      </c>
-      <c r="C927" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="928" spans="1:3">
-      <c r="A928">
-        <v>0.1523309009792431</v>
-      </c>
-      <c r="B928">
-        <v>52897</v>
-      </c>
-      <c r="C928" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="929" spans="1:3">
-      <c r="A929">
-        <v>0.3240765246323112</v>
-      </c>
-      <c r="B929">
-        <v>52897</v>
-      </c>
-      <c r="C929" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="930" spans="1:3">
-      <c r="A930">
-        <v>0.1190971303262883</v>
-      </c>
-      <c r="B930">
-        <v>52897</v>
-      </c>
-      <c r="C930" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="931" spans="1:3">
-      <c r="A931">
-        <v>0.09646109472729041</v>
-      </c>
-      <c r="B931">
-        <v>61713</v>
-      </c>
-      <c r="C931" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="932" spans="1:3">
-      <c r="A932">
-        <v>0.09095180996208316</v>
-      </c>
-      <c r="B932">
-        <v>61713</v>
-      </c>
-      <c r="C932" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="933" spans="1:3">
-      <c r="A933">
-        <v>0.1170560974819328</v>
-      </c>
-      <c r="B933">
-        <v>61713</v>
-      </c>
-      <c r="C933" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="934" spans="1:3">
-      <c r="A934">
-        <v>0.08933143208996339</v>
-      </c>
-      <c r="B934">
-        <v>61713</v>
-      </c>
-      <c r="C934" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="935" spans="1:3">
-      <c r="A935">
-        <v>0.1305700489354117</v>
-      </c>
-      <c r="B935">
-        <v>61713</v>
-      </c>
-      <c r="C935" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="936" spans="1:3">
-      <c r="A936">
-        <v>0.3253718767216515</v>
-      </c>
-      <c r="B936">
-        <v>61713</v>
-      </c>
-      <c r="C936" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="937" spans="1:3">
-      <c r="A937">
-        <v>0.102083805943546</v>
-      </c>
-      <c r="B937">
-        <v>61713</v>
-      </c>
-      <c r="C937" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="938" spans="1:3">
-      <c r="A938">
-        <v>0.09639869559052885</v>
-      </c>
-      <c r="B938">
-        <v>70529</v>
-      </c>
-      <c r="C938" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="939" spans="1:3">
-      <c r="A939">
-        <v>0.09042960442364952</v>
-      </c>
-      <c r="B939">
-        <v>70529</v>
-      </c>
-      <c r="C939" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="940" spans="1:3">
-      <c r="A940">
-        <v>0.1180774138664398</v>
-      </c>
-      <c r="B940">
-        <v>70529</v>
-      </c>
-      <c r="C940" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="941" spans="1:3">
-      <c r="A941">
-        <v>0.09027364242166454</v>
-      </c>
-      <c r="B941">
-        <v>70529</v>
-      </c>
-      <c r="C941" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="942" spans="1:3">
-      <c r="A942">
-        <v>0.1142492556358996</v>
-      </c>
-      <c r="B942">
-        <v>70529</v>
-      </c>
-      <c r="C942" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="943" spans="1:3">
-      <c r="A943">
-        <v>0.3264568268821778</v>
-      </c>
-      <c r="B943">
-        <v>70529</v>
-      </c>
-      <c r="C943" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="944" spans="1:3">
-      <c r="A944">
-        <v>0.0893236920459379</v>
-      </c>
-      <c r="B944">
-        <v>70529</v>
-      </c>
-      <c r="C944" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="945" spans="1:3">
-      <c r="A945">
-        <v>0.09584604138834976</v>
-      </c>
-      <c r="B945">
-        <v>79345</v>
-      </c>
-      <c r="C945" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="946" spans="1:3">
-      <c r="A946">
-        <v>0.09056537191540846</v>
-      </c>
-      <c r="B946">
-        <v>79345</v>
-      </c>
-      <c r="C946" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="947" spans="1:3">
-      <c r="A947">
-        <v>0.1179517556020467</v>
-      </c>
-      <c r="B947">
-        <v>79345</v>
-      </c>
-      <c r="C947" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="948" spans="1:3">
-      <c r="A948">
-        <v>0.09045194464749326</v>
-      </c>
-      <c r="B948">
-        <v>79345</v>
-      </c>
-      <c r="C948" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="949" spans="1:3">
-      <c r="A949">
-        <v>0.1200942706626673</v>
-      </c>
-      <c r="B949">
-        <v>79345</v>
-      </c>
-      <c r="C949" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="950" spans="1:3">
-      <c r="A950">
-        <v>0.3295692284425176</v>
-      </c>
-      <c r="B950">
-        <v>79345</v>
-      </c>
-      <c r="C950" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="951" spans="1:3">
-      <c r="A951">
-        <v>0.0944218990245255</v>
-      </c>
-      <c r="B951">
-        <v>79345</v>
-      </c>
-      <c r="C951" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="952" spans="1:3">
-      <c r="A952">
-        <v>0.09590299675597196</v>
-      </c>
-      <c r="B952">
-        <v>88162</v>
-      </c>
-      <c r="C952" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="953" spans="1:3">
-      <c r="A953">
-        <v>0.09112769674009211</v>
-      </c>
-      <c r="B953">
-        <v>88162</v>
-      </c>
-      <c r="C953" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="954" spans="1:3">
-      <c r="A954">
-        <v>0.1173408044282117</v>
-      </c>
-      <c r="B954">
-        <v>88162</v>
-      </c>
-      <c r="C954" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="955" spans="1:3">
-      <c r="A955">
-        <v>0.09010684875569973</v>
-      </c>
-      <c r="B955">
-        <v>88162</v>
-      </c>
-      <c r="C955" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="956" spans="1:3">
-      <c r="A956">
-        <v>0.1294662099317166</v>
-      </c>
-      <c r="B956">
-        <v>88162</v>
-      </c>
-      <c r="C956" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="957" spans="1:3">
-      <c r="A957">
-        <v>0.3305505773462489</v>
-      </c>
-      <c r="B957">
-        <v>88162</v>
-      </c>
-      <c r="C957" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="958" spans="1:3">
-      <c r="A958">
-        <v>0.1022889680361153</v>
-      </c>
-      <c r="B958">
-        <v>88162</v>
-      </c>
-      <c r="C958" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="959" spans="1:3">
-      <c r="A959">
-        <v>0.1530612244897959</v>
-      </c>
-      <c r="B959">
-        <v>881</v>
-      </c>
-      <c r="C959" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="960" spans="1:3">
-      <c r="A960">
-        <v>0.1099773242630386</v>
-      </c>
-      <c r="B960">
-        <v>881</v>
-      </c>
-      <c r="C960" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="961" spans="1:3">
-      <c r="A961">
-        <v>0.1859410430839002</v>
-      </c>
-      <c r="B961">
-        <v>881</v>
-      </c>
-      <c r="C961" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="962" spans="1:3">
-      <c r="A962">
-        <v>0.3163265306122449</v>
-      </c>
-      <c r="B962">
-        <v>881</v>
-      </c>
-      <c r="C962" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="963" spans="1:3">
-      <c r="A963">
-        <v>0.1258503401360544</v>
-      </c>
-      <c r="B963">
-        <v>881</v>
-      </c>
-      <c r="C963" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="964" spans="1:3">
-      <c r="A964">
-        <v>0.128373780902699</v>
-      </c>
-      <c r="B964">
-        <v>4408</v>
-      </c>
-      <c r="C964" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="965" spans="1:3">
-      <c r="A965">
-        <v>0.2018598321614879</v>
-      </c>
-      <c r="B965">
-        <v>4408</v>
-      </c>
-      <c r="C965" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="966" spans="1:3">
-      <c r="A966">
-        <v>0.3086867770469494</v>
-      </c>
-      <c r="B966">
-        <v>4408</v>
-      </c>
-      <c r="C966" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="967" spans="1:3">
-      <c r="A967">
-        <v>0.1524155137219324</v>
-      </c>
-      <c r="B967">
-        <v>4408</v>
-      </c>
-      <c r="C967" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="968" spans="1:3">
-      <c r="A968">
-        <v>0.1138709311557219</v>
-      </c>
-      <c r="B968">
-        <v>8816</v>
-      </c>
-      <c r="C968" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="969" spans="1:3">
-      <c r="A969">
-        <v>0.1943971872518998</v>
-      </c>
-      <c r="B969">
-        <v>8816</v>
-      </c>
-      <c r="C969" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="970" spans="1:3">
-      <c r="A970">
-        <v>0.2925031189747079</v>
-      </c>
-      <c r="B970">
-        <v>8816</v>
-      </c>
-      <c r="C970" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="971" spans="1:3">
-      <c r="A971">
-        <v>0.1440399228762618</v>
-      </c>
-      <c r="B971">
-        <v>8816</v>
-      </c>
-      <c r="C971" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="972" spans="1:3">
-      <c r="A972">
-        <v>0.1121193217263086</v>
-      </c>
-      <c r="B972">
-        <v>17632</v>
-      </c>
-      <c r="C972" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="973" spans="1:3">
-      <c r="A973">
-        <v>0.2026314297056655</v>
-      </c>
-      <c r="B973">
-        <v>17632</v>
-      </c>
-      <c r="C973" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="974" spans="1:3">
-      <c r="A974">
-        <v>0.301026484432598</v>
-      </c>
-      <c r="B974">
-        <v>17632</v>
-      </c>
-      <c r="C974" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="975" spans="1:3">
-      <c r="A975">
-        <v>0.1531786990302274</v>
-      </c>
-      <c r="B975">
-        <v>17632</v>
-      </c>
-      <c r="C975" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="976" spans="1:3">
-      <c r="A976">
-        <v>0.10170516843737</v>
-      </c>
-      <c r="B976">
-        <v>26448</v>
-      </c>
-      <c r="C976" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="977" spans="1:3">
-      <c r="A977">
-        <v>0.1149759915308707</v>
-      </c>
-      <c r="B977">
-        <v>26448</v>
-      </c>
-      <c r="C977" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="978" spans="1:3">
-      <c r="A978">
-        <v>0.2113501455631593</v>
-      </c>
-      <c r="B978">
-        <v>26448</v>
-      </c>
-      <c r="C978" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="979" spans="1:3">
-      <c r="A979">
-        <v>0.316533706378313</v>
-      </c>
-      <c r="B979">
-        <v>26448</v>
-      </c>
-      <c r="C979" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="980" spans="1:3">
-      <c r="A980">
-        <v>0.1623879919845741</v>
-      </c>
-      <c r="B980">
-        <v>26448</v>
-      </c>
-      <c r="C980" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="981" spans="1:3">
-      <c r="A981">
-        <v>0.1149581738267404</v>
-      </c>
-      <c r="B981">
-        <v>35264</v>
-      </c>
-      <c r="C981" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="982" spans="1:3">
-      <c r="A982">
-        <v>0.2106337728626116</v>
-      </c>
-      <c r="B982">
-        <v>35264</v>
-      </c>
-      <c r="C982" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="983" spans="1:3">
-      <c r="A983">
-        <v>0.3231816248404934</v>
-      </c>
-      <c r="B983">
-        <v>35264</v>
-      </c>
-      <c r="C983" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="984" spans="1:3">
-      <c r="A984">
-        <v>0.1643839500921594</v>
-      </c>
-      <c r="B984">
-        <v>35264</v>
-      </c>
-      <c r="C984" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="985" spans="1:3">
-      <c r="A985">
-        <v>0.1173041150583004</v>
-      </c>
-      <c r="B985">
-        <v>44081</v>
-      </c>
-      <c r="C985" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="986" spans="1:3">
-      <c r="A986">
-        <v>0.1827956989247312</v>
-      </c>
-      <c r="B986">
-        <v>44081</v>
-      </c>
-      <c r="C986" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="987" spans="1:3">
-      <c r="A987">
-        <v>0.3261421895558278</v>
-      </c>
-      <c r="B987">
-        <v>44081</v>
-      </c>
-      <c r="C987" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="988" spans="1:3">
-      <c r="A988">
-        <v>0.1429154757043691</v>
-      </c>
-      <c r="B988">
-        <v>44081</v>
-      </c>
-      <c r="C988" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="989" spans="1:3">
-      <c r="A989">
-        <v>0.1167151877197626</v>
-      </c>
-      <c r="B989">
-        <v>52897</v>
-      </c>
-      <c r="C989" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="990" spans="1:3">
-      <c r="A990">
-        <v>0.1523309009792431</v>
-      </c>
-      <c r="B990">
-        <v>52897</v>
-      </c>
-      <c r="C990" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="991" spans="1:3">
-      <c r="A991">
-        <v>0.3240765246323112</v>
-      </c>
-      <c r="B991">
-        <v>52897</v>
-      </c>
-      <c r="C991" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="992" spans="1:3">
-      <c r="A992">
-        <v>0.1190971303262883</v>
-      </c>
-      <c r="B992">
-        <v>52897</v>
-      </c>
-      <c r="C992" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="993" spans="1:3">
-      <c r="A993">
-        <v>0.1170560974819328</v>
-      </c>
-      <c r="B993">
-        <v>61713</v>
-      </c>
-      <c r="C993" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="994" spans="1:3">
-      <c r="A994">
-        <v>0.1305700489354117</v>
-      </c>
-      <c r="B994">
-        <v>61713</v>
-      </c>
-      <c r="C994" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="995" spans="1:3">
-      <c r="A995">
-        <v>0.3253718767216515</v>
-      </c>
-      <c r="B995">
-        <v>61713</v>
-      </c>
-      <c r="C995" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="996" spans="1:3">
-      <c r="A996">
-        <v>0.102083805943546</v>
-      </c>
-      <c r="B996">
-        <v>61713</v>
-      </c>
-      <c r="C996" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="997" spans="1:3">
-      <c r="A997">
-        <v>0.1180774138664398</v>
-      </c>
-      <c r="B997">
-        <v>70529</v>
-      </c>
-      <c r="C997" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="998" spans="1:3">
-      <c r="A998">
-        <v>0.1142492556358996</v>
-      </c>
-      <c r="B998">
-        <v>70529</v>
-      </c>
-      <c r="C998" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="999" spans="1:3">
-      <c r="A999">
-        <v>0.3264568268821778</v>
-      </c>
-      <c r="B999">
-        <v>70529</v>
-      </c>
-      <c r="C999" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:3">
-      <c r="A1000">
-        <v>0.1179517556020467</v>
-      </c>
-      <c r="B1000">
-        <v>79345</v>
-      </c>
-      <c r="C1000" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:3">
-      <c r="A1001">
-        <v>0.1200942706626673</v>
-      </c>
-      <c r="B1001">
-        <v>79345</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:3">
-      <c r="A1002">
-        <v>0.3295692284425176</v>
-      </c>
-      <c r="B1002">
-        <v>79345</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:3">
-      <c r="A1003">
-        <v>0.1173408044282117</v>
-      </c>
-      <c r="B1003">
-        <v>88162</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:3">
-      <c r="A1004">
-        <v>0.1294662099317166</v>
-      </c>
-      <c r="B1004">
-        <v>88162</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:3">
-      <c r="A1005">
-        <v>0.3305505773462489</v>
-      </c>
-      <c r="B1005">
-        <v>88162</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:3">
-      <c r="A1006">
-        <v>0.1022889680361153</v>
-      </c>
-      <c r="B1006">
-        <v>88162</v>
-      </c>
-      <c r="C1006" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
